--- a/Data/indicators.xlsx
+++ b/Data/indicators.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JT\Dropbox\Apps\site44\tonitest.site44.com\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1228C40B-CCD6-4CA3-8EAD-30D222B1F164}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7F1587-5F8C-4F82-869B-6B01998C5E78}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{D93D6345-A6DF-40A8-8275-CDEE51741FAC}"/>
   </bookViews>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -81,9 +80,6 @@
     <t>prevent risk</t>
   </si>
   <si>
-    <t>Decision making is hazard and climate risk-sensitive.</t>
-  </si>
-  <si>
     <t>State of institutional structures and processes at local level.</t>
   </si>
   <si>
@@ -318,9 +314,6 @@
   <si>
     <t>Survey, observation
 Interviews of authorities</t>
-  </si>
-  <si>
-    <t>Hazard-prone areas are used risk-consciously.</t>
   </si>
   <si>
     <t>Degree of application of land use regulations</t>
@@ -1136,12 +1129,18 @@
   <si>
     <t>Number of households where a member can identify safe evacuation routes, safe places and emergency shelters</t>
   </si>
+  <si>
+    <t>Decision making is hazard and climate risk-sensitive</t>
+  </si>
+  <si>
+    <t>Hazard-prone areas are used risk-consciously</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1424,7 +1423,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1472,7 +1471,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1521,7 +1520,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1569,7 +1568,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1618,7 +1617,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1633,7 +1632,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1931,21 +1930,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67043C9C-7F1E-463B-AC84-2BF920E243BC}">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0" xr3:uid="{FE64188C-CC3A-5077-967E-C0167ABB6970}">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.42578125" defaultRowHeight="13.9" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.3984375" defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" customWidth="1"/>
-    <col min="6" max="6" width="125.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="100.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1328125" customWidth="1"/>
+    <col min="3" max="3" width="127.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.86328125" customWidth="1"/>
+    <col min="6" max="6" width="125.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="100.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="13.9" customHeight="1">
+    <row r="1" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -1989,7 +1988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="13.9" customHeight="1">
+    <row r="2" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="27" t="s">
         <v>14</v>
       </c>
@@ -1997,43 +1996,43 @@
         <v>15</v>
       </c>
       <c r="C2" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="D2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="E2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="F2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="G2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="H2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="I2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="J2" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="K2" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="L2" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="M2" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="N2" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="13.9" customHeight="1">
+    </row>
+    <row r="3" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="27" t="s">
         <v>14</v>
       </c>
@@ -2041,39 +2040,39 @@
         <v>15</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>16</v>
+        <v>346</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="G3" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="H3" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="I3" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="27" t="s">
+      <c r="M3" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="27" t="s">
-        <v>33</v>
-      </c>
       <c r="N3" s="27"/>
     </row>
-    <row r="4" spans="1:14" ht="13.9" customHeight="1">
+    <row r="4" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="27" t="s">
         <v>14</v>
       </c>
@@ -2081,39 +2080,39 @@
         <v>15</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>16</v>
+        <v>346</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="G4" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="H4" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="I4" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="J4" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="27" t="s">
-        <v>39</v>
-      </c>
       <c r="M4" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N4" s="27"/>
     </row>
-    <row r="5" spans="1:14" ht="13.9" customHeight="1">
+    <row r="5" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="27" t="s">
         <v>14</v>
       </c>
@@ -2121,39 +2120,39 @@
         <v>15</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>16</v>
+        <v>346</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="G5" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="H5" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="I5" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="J5" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="K5" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="27" t="s">
-        <v>46</v>
-      </c>
       <c r="M5" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N5" s="27"/>
     </row>
-    <row r="6" spans="1:14" ht="13.9" customHeight="1">
+    <row r="6" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="27" t="s">
         <v>14</v>
       </c>
@@ -2161,37 +2160,37 @@
         <v>15</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>16</v>
+        <v>346</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="G6" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="H6" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="I6" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="27" t="s">
-        <v>51</v>
-      </c>
       <c r="J6" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K6" s="27"/>
       <c r="L6" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M6" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N6" s="27"/>
     </row>
-    <row r="7" spans="1:14" ht="13.9" customHeight="1">
+    <row r="7" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="27" t="s">
         <v>14</v>
       </c>
@@ -2199,41 +2198,41 @@
         <v>15</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>16</v>
+        <v>346</v>
       </c>
       <c r="D7" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="F7" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="G7" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="H7" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="I7" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="J7" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="27" t="s">
-        <v>59</v>
-      </c>
       <c r="M7" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N7" s="27"/>
     </row>
-    <row r="8" spans="1:14" ht="13.9" customHeight="1">
+    <row r="8" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="27" t="s">
         <v>14</v>
       </c>
@@ -2241,39 +2240,39 @@
         <v>15</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>16</v>
+        <v>346</v>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="G8" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="H8" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="I8" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="J8" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="J8" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="27" t="s">
-        <v>65</v>
-      </c>
       <c r="M8" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N8" s="27"/>
     </row>
-    <row r="9" spans="1:14" ht="13.9" customHeight="1">
+    <row r="9" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="27" t="s">
         <v>14</v>
       </c>
@@ -2281,39 +2280,39 @@
         <v>15</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>16</v>
+        <v>346</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="G9" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="H9" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="I9" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="J9" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="J9" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="27" t="s">
-        <v>71</v>
-      </c>
       <c r="M9" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N9" s="27"/>
     </row>
-    <row r="10" spans="1:14" ht="13.9" customHeight="1">
+    <row r="10" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="27" t="s">
         <v>14</v>
       </c>
@@ -2321,39 +2320,39 @@
         <v>15</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>16</v>
+        <v>346</v>
       </c>
       <c r="D10" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="F10" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="G10" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="H10" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="I10" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="27" t="s">
-        <v>77</v>
-      </c>
       <c r="J10" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K10" s="27"/>
       <c r="L10" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M10" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N10" s="27"/>
     </row>
-    <row r="11" spans="1:14" ht="13.9" customHeight="1">
+    <row r="11" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="27" t="s">
         <v>14</v>
       </c>
@@ -2361,37 +2360,37 @@
         <v>15</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>16</v>
+        <v>346</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="G11" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="H11" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="I11" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="I11" s="27" t="s">
-        <v>82</v>
-      </c>
       <c r="J11" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K11" s="27"/>
       <c r="L11" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M11" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N11" s="27"/>
     </row>
-    <row r="12" spans="1:14" ht="13.9" customHeight="1">
+    <row r="12" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="27" t="s">
         <v>14</v>
       </c>
@@ -2399,39 +2398,39 @@
         <v>15</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>16</v>
+        <v>346</v>
       </c>
       <c r="D12" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="F12" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="G12" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="H12" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="I12" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="I12" s="27" t="s">
-        <v>89</v>
-      </c>
       <c r="J12" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K12" s="27"/>
       <c r="L12" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M12" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N12" s="27"/>
     </row>
-    <row r="13" spans="1:14" ht="13.9" customHeight="1">
+    <row r="13" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="27" t="s">
         <v>14</v>
       </c>
@@ -2439,41 +2438,41 @@
         <v>15</v>
       </c>
       <c r="C13" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="F13" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="G13" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="H13" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="I13" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="27" t="s">
+      <c r="J13" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="I13" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="J13" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="27" t="s">
-        <v>98</v>
-      </c>
       <c r="M13" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N13" s="27"/>
     </row>
-    <row r="14" spans="1:14" ht="13.9" customHeight="1">
+    <row r="14" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="27" t="s">
         <v>14</v>
       </c>
@@ -2481,37 +2480,37 @@
         <v>15</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>91</v>
+        <v>347</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="I14" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="J14" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" s="27" t="s">
-        <v>103</v>
-      </c>
       <c r="M14" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N14" s="27"/>
     </row>
-    <row r="15" spans="1:14" ht="13.9" customHeight="1">
+    <row r="15" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="27" t="s">
         <v>14</v>
       </c>
@@ -2519,41 +2518,41 @@
         <v>15</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>91</v>
+        <v>347</v>
       </c>
       <c r="D15" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="G15" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="H15" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="I15" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="J15" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="I15" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="J15" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15" s="27" t="s">
-        <v>110</v>
-      </c>
       <c r="M15" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N15" s="27"/>
     </row>
-    <row r="16" spans="1:14" ht="13.9" customHeight="1">
+    <row r="16" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="27" t="s">
         <v>14</v>
       </c>
@@ -2561,1637 +2560,1637 @@
         <v>15</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>91</v>
+        <v>347</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="H16" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="I16" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="J16" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="I16" s="27" t="s">
+      <c r="L16" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="J16" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="27" t="s">
+      <c r="M16" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" s="27"/>
+    </row>
+    <row r="17" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="L16" s="27" t="s">
+      <c r="B17" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="M16" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="N16" s="27"/>
-    </row>
-    <row r="17" spans="1:14" ht="13.9" customHeight="1">
-      <c r="A17" s="19" t="s">
+      <c r="C17" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>120</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="H17" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="I17" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="J17" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="L17" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="I17" s="24" t="s">
+      <c r="M17" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="J17" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="24" t="s">
+      <c r="N17" s="24"/>
+    </row>
+    <row r="18" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="L17" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="M17" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="N17" s="24"/>
-    </row>
-    <row r="18" spans="1:14" ht="13.9" customHeight="1">
-      <c r="A18" s="19" t="s">
+      <c r="B18" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>120</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="G18" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="H18" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="I18" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="L18" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="M18" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="N18" s="24"/>
+    </row>
+    <row r="19" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>130</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="I18" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="J18" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="L18" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="M18" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="N18" s="24"/>
-    </row>
-    <row r="19" spans="1:14" ht="13.9" customHeight="1">
-      <c r="A19" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>132</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="H19" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="G19" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>136</v>
-      </c>
       <c r="I19" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="L19" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="M19" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="J19" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="24" t="s">
+      <c r="N19" s="24"/>
+    </row>
+    <row r="20" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="L19" s="24" t="s">
+      <c r="B20" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="M19" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="N19" s="24"/>
-    </row>
-    <row r="20" spans="1:14" ht="13.9" customHeight="1">
-      <c r="A20" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>119</v>
-      </c>
       <c r="C20" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="G20" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="H20" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="G20" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>140</v>
-      </c>
       <c r="I20" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="M20" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="J20" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="24" t="s">
+      <c r="N20" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="L20" s="24" t="s">
+      <c r="B21" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="M20" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="N20" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="13.9" customHeight="1">
-      <c r="A21" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>119</v>
-      </c>
       <c r="C21" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="G21" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="H21" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="I21" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="H21" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="I21" s="24" t="s">
-        <v>145</v>
-      </c>
       <c r="J21" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K21" s="24"/>
       <c r="L21" s="24" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M21" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N21" s="24"/>
     </row>
-    <row r="22" spans="1:14" ht="13.9" customHeight="1">
+    <row r="22" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="G22" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="H22" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="I22" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="J22" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="L22" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="M22" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="N22" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="22" t="s">
         <v>150</v>
-      </c>
-      <c r="H22" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="I22" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="J22" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="L22" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="M22" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="N22" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="13.9" customHeight="1">
-      <c r="A23" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>152</v>
       </c>
       <c r="D23" s="24"/>
       <c r="E23" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="G23" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="H23" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="I23" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="H23" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="I23" s="24" t="s">
-        <v>157</v>
-      </c>
       <c r="J23" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K23" s="24"/>
       <c r="L23" s="24" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M23" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N23" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="13.9" customHeight="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="H24" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="I24" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="J24" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="L24" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="H24" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="I24" s="24" t="s">
+      <c r="M24" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="J24" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="K24" s="24" t="s">
+      <c r="N24" s="24"/>
+    </row>
+    <row r="25" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="L24" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="M24" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="N24" s="24"/>
-    </row>
-    <row r="25" spans="1:14" ht="13.9" customHeight="1">
-      <c r="A25" s="19" t="s">
-        <v>118</v>
-      </c>
       <c r="B25" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="G25" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="H25" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="G25" s="24" t="s">
+      <c r="I25" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="L25" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="H25" s="24" t="s">
+      <c r="M25" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="N25" s="24"/>
+    </row>
+    <row r="26" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="I25" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="J25" s="24" t="s">
+      <c r="B26" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="K26" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="L25" s="24" t="s">
+      <c r="L26" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="M26" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="N26" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="M25" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="N25" s="24"/>
-    </row>
-    <row r="26" spans="1:14" ht="13.9" customHeight="1">
-      <c r="A26" s="18" t="s">
+      <c r="C27" s="18" t="s">
         <v>169</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="J26" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="K26" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="L26" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="M26" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="N26" s="18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="13.9" customHeight="1">
-      <c r="A27" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>171</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="G27" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="H27" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="G27" s="18" t="s">
+      <c r="I27" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="H27" s="18" t="s">
+      <c r="J27" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="I27" s="18" t="s">
+      <c r="K27" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="L27" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="J27" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="K27" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="L27" s="18" t="s">
-        <v>187</v>
-      </c>
       <c r="M27" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N27" s="18"/>
     </row>
-    <row r="28" spans="1:14" ht="13.9" customHeight="1">
+    <row r="28" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>169</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>171</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G28" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="H28" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="I28" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="H28" s="18" t="s">
+      <c r="J28" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="I28" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="J28" s="18" t="s">
-        <v>193</v>
-      </c>
       <c r="K28" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L28" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M28" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N28" s="18"/>
     </row>
-    <row r="29" spans="1:14" ht="13.9" customHeight="1">
+    <row r="29" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C29" s="18" t="s">
         <v>169</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>171</v>
       </c>
       <c r="D29" s="18"/>
       <c r="E29" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="G29" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="H29" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="I29" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="H29" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="I29" s="18" t="s">
-        <v>198</v>
-      </c>
       <c r="J29" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K29" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L29" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M29" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N29" s="18"/>
     </row>
-    <row r="30" spans="1:14" ht="13.9" customHeight="1">
+    <row r="30" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>169</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>171</v>
       </c>
       <c r="D30" s="18"/>
       <c r="E30" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="G30" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="H30" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="I30" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="H30" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="I30" s="18" t="s">
-        <v>203</v>
-      </c>
       <c r="J30" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K30" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L30" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M30" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N30" s="18"/>
     </row>
-    <row r="31" spans="1:14" ht="13.9" customHeight="1">
+    <row r="31" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C31" s="18" t="s">
         <v>169</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>171</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="G31" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="H31" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="I31" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="H31" s="18" t="s">
+      <c r="J31" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="K31" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="L31" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="I31" s="18" t="s">
+      <c r="M31" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="N31" s="18"/>
+    </row>
+    <row r="32" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D32" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="J31" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="K31" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="L31" s="18" t="s">
+      <c r="E32" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="M31" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="N31" s="18"/>
-    </row>
-    <row r="32" spans="1:14" ht="13.9" customHeight="1">
-      <c r="A32" s="18" t="s">
+      <c r="F32" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="J32" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="K32" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="L32" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="M32" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="N32" s="18"/>
+    </row>
+    <row r="33" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C33" s="18" t="s">
         <v>169</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="F32" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="G32" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="H32" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="I32" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="J32" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="K32" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="L32" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="M32" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="N32" s="18"/>
-    </row>
-    <row r="33" spans="1:14" ht="13.9" customHeight="1">
-      <c r="A33" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>171</v>
       </c>
       <c r="D33" s="18"/>
       <c r="E33" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="G33" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="H33" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="G33" s="18" t="s">
+      <c r="I33" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="H33" s="18" t="s">
+      <c r="J33" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="K33" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="L33" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="I33" s="18" t="s">
+      <c r="M33" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="N33" s="18"/>
+    </row>
+    <row r="34" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>220</v>
-      </c>
-      <c r="J33" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="K33" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="L33" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="M33" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="N33" s="18"/>
-    </row>
-    <row r="34" spans="1:14" ht="13.9" customHeight="1">
-      <c r="A34" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>222</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="G34" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="F34" s="18" t="s">
+      <c r="H34" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="G34" s="18" t="s">
+      <c r="I34" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="H34" s="18" t="s">
+      <c r="J34" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="I34" s="18" t="s">
+      <c r="K34" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="L34" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="J34" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="K34" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="L34" s="18" t="s">
-        <v>229</v>
-      </c>
       <c r="M34" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N34" s="18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="13.9" customHeight="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="G35" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="F35" s="18" t="s">
+      <c r="H35" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="G35" s="18" t="s">
+      <c r="I35" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="H35" s="18" t="s">
+      <c r="J35" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="K35" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="L35" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="I35" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="J35" s="18" t="s">
+      <c r="M35" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="K35" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="L35" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="M35" s="18" t="s">
-        <v>180</v>
-      </c>
       <c r="N35" s="18"/>
     </row>
-    <row r="36" spans="1:14" ht="13.9" customHeight="1">
+    <row r="36" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D36" s="18"/>
       <c r="E36" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="G36" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="F36" s="18" t="s">
+      <c r="H36" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="G36" s="18" t="s">
+      <c r="I36" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="H36" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="I36" s="18" t="s">
-        <v>240</v>
-      </c>
       <c r="J36" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="K36" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="L36" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="M36" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="K36" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="L36" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="M36" s="18" t="s">
-        <v>180</v>
-      </c>
       <c r="N36" s="18"/>
     </row>
-    <row r="37" spans="1:14" ht="13.9" customHeight="1">
+    <row r="37" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D37" s="18"/>
       <c r="E37" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="G37" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="F37" s="18" t="s">
+      <c r="H37" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="G37" s="18" t="s">
+      <c r="I37" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="H37" s="18" t="s">
+      <c r="J37" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="K37" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="L37" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="I37" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="J37" s="18" t="s">
+      <c r="M37" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="K37" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="L37" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="M37" s="18" t="s">
-        <v>180</v>
-      </c>
       <c r="N37" s="18"/>
     </row>
-    <row r="38" spans="1:14" ht="13.9" customHeight="1">
+    <row r="38" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D38" s="18"/>
       <c r="E38" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="G38" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="F38" s="18" t="s">
+      <c r="H38" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="G38" s="18" t="s">
+      <c r="I38" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="H38" s="18" t="s">
+      <c r="J38" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="I38" s="18" t="s">
+      <c r="K38" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="J38" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="K38" s="18" t="s">
-        <v>253</v>
-      </c>
       <c r="L38" s="18" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M38" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N38" s="18"/>
     </row>
-    <row r="39" spans="1:14" ht="13.9" customHeight="1">
+    <row r="39" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D39" s="18"/>
       <c r="E39" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="G39" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="F39" s="18" t="s">
+      <c r="H39" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="G39" s="18" t="s">
+      <c r="I39" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="H39" s="18" t="s">
+      <c r="J39" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="I39" s="18" t="s">
+      <c r="K39" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="J39" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="K39" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="L39" s="18" t="s">
-        <v>260</v>
-      </c>
       <c r="M39" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N39" s="18"/>
     </row>
-    <row r="40" spans="1:14" ht="13.9" customHeight="1">
+    <row r="40" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D40" s="18"/>
       <c r="E40" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="G40" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="F40" s="18" t="s">
+      <c r="H40" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="G40" s="18" t="s">
+      <c r="I40" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="H40" s="18" t="s">
+      <c r="J40" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="K40" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L40" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="I40" s="18" t="s">
+      <c r="M40" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="N40" s="18"/>
+    </row>
+    <row r="41" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="J40" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="K40" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="L40" s="18" t="s">
+      <c r="B41" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="M40" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="N40" s="18"/>
-    </row>
-    <row r="41" spans="1:14" ht="13.9" customHeight="1">
-      <c r="A41" s="8" t="s">
+      <c r="D41" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="E41" s="6">
         <v>1001</v>
       </c>
       <c r="F41" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H41" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="I41" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="J41" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="I41" s="7" t="s">
+      <c r="M41" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="J41" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="M41" s="7" t="s">
-        <v>275</v>
-      </c>
       <c r="N41" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="13.9" customHeight="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="6">
         <v>1002</v>
       </c>
       <c r="F42" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H42" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="I42" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="H42" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="I42" s="7" t="s">
+      <c r="M42" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="J42" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="M42" s="7" t="s">
-        <v>275</v>
-      </c>
       <c r="N42" s="7"/>
     </row>
-    <row r="43" spans="1:14" ht="13.9" customHeight="1">
+    <row r="43" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="6">
         <v>1003</v>
       </c>
       <c r="F43" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H43" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="I43" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="J43" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="I43" s="7" t="s">
+      <c r="M43" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="N43" s="7"/>
+    </row>
+    <row r="44" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="J43" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L43" s="7" t="s">
+      <c r="B44" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="M43" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="N43" s="7"/>
-    </row>
-    <row r="44" spans="1:14" ht="13.9" customHeight="1">
-      <c r="A44" s="5" t="s">
+      <c r="D44" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="C44" s="5" t="s">
+      <c r="E44" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="F44" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="G44" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="H44" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="I44" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="J44" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M44" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="I44" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="L44" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="M44" s="5" t="s">
-        <v>293</v>
-      </c>
       <c r="N44" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="13.9" customHeight="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="J45" s="5" t="s">
         <v>296</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="J45" s="5" t="s">
-        <v>298</v>
       </c>
       <c r="K45" s="5"/>
       <c r="L45" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="M45" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N45" s="5"/>
     </row>
-    <row r="46" spans="1:14" ht="13.9" customHeight="1">
+    <row r="46" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N46" s="5"/>
     </row>
-    <row r="47" spans="1:14" ht="13.9" customHeight="1">
+    <row r="47" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N47" s="5"/>
     </row>
-    <row r="48" spans="1:14" ht="13.9" customHeight="1">
+    <row r="48" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G48" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="H48" s="5" t="s">
         <v>308</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>310</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L48" s="5"/>
       <c r="M48" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N48" s="5"/>
     </row>
-    <row r="49" spans="1:14" ht="13.9" customHeight="1">
+    <row r="49" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="L49" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="I49" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="K49" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="L49" s="5" t="s">
-        <v>315</v>
-      </c>
       <c r="M49" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N49" s="5"/>
     </row>
-    <row r="50" spans="1:14" ht="13.9" customHeight="1">
+    <row r="50" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G50" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="H50" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="G50" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>319</v>
-      </c>
       <c r="I50" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N50" s="5"/>
     </row>
-    <row r="51" spans="1:14" ht="13.9" customHeight="1">
+    <row r="51" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="G51" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="H51" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="I51" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="H51" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>324</v>
-      </c>
       <c r="J51" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M51" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N51" s="5"/>
     </row>
-    <row r="52" spans="1:14" ht="13.9" customHeight="1">
+    <row r="52" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G52" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="H52" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="I52" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="H52" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>329</v>
-      </c>
       <c r="J52" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M52" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N52" s="5"/>
     </row>
-    <row r="53" spans="1:14" ht="13.9" customHeight="1">
+    <row r="53" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="G53" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="H53" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="I53" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="J53" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="L53" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M53" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="N53" s="5"/>
+    </row>
+    <row r="54" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="I53" s="5" t="s">
+      <c r="E54" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="J53" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="K53" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="L53" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="M53" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="N53" s="5"/>
-    </row>
-    <row r="54" spans="1:14" ht="13.9" customHeight="1">
-      <c r="A54" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="D54" s="5" t="s">
+      <c r="F54" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="G54" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="H54" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="G54" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>339</v>
-      </c>
       <c r="I54" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M54" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N54" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="13.9" customHeight="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="G55" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="H55" s="5" t="s">
         <v>341</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>343</v>
       </c>
       <c r="I55" s="5"/>
       <c r="J55" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K55" s="5"/>
       <c r="L55" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M55" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N55" s="5"/>
     </row>
-    <row r="56" spans="1:14" ht="13.9" customHeight="1">
+    <row r="56" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G56" s="5"/>
       <c r="H56" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M56" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N56" s="5"/>
     </row>
